--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2986.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2986.xlsx
@@ -354,7 +354,7 @@
         <v>2.512055862431781</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.254240010527454</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2986.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2986.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.193741136056159</v>
+        <v>1.726580142974854</v>
       </c>
       <c r="B1">
-        <v>2.512055862431781</v>
+        <v>2.31868052482605</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.399679183959961</v>
       </c>
       <c r="D1">
-        <v>2.254240010527454</v>
+        <v>2.695592880249023</v>
       </c>
       <c r="E1">
-        <v>1.186045882753405</v>
+        <v>3.423704862594604</v>
       </c>
     </row>
   </sheetData>
